--- a/InputFile/OneShieldTestData.xlsx
+++ b/InputFile/OneShieldTestData.xlsx
@@ -3,15 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Geeta\java\OneShieldDesigner\InputFile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="5740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PositiveSignIn" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="PositiveSignin" sheetId="1" r:id="rId1"/>
+    <sheet name="PositiveCreateSCR" sheetId="2" r:id="rId2"/>
+    <sheet name="PositiveUserInfo" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:F18"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>UserName</t>
+  </si>
   <si>
     <t>Password</t>
   </si>
@@ -32,13 +40,52 @@
     <t>gvani</t>
   </si>
   <si>
+    <t>TC Name</t>
+  </si>
+  <si>
     <t>Oneshield@21</t>
   </si>
   <si>
-    <t>UserId</t>
-  </si>
-  <si>
     <t>TCName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>TC01_Positive_CreateScr_check</t>
+  </si>
+  <si>
+    <t>Test_SCR</t>
+  </si>
+  <si>
+    <t>Scr creation testing</t>
+  </si>
+  <si>
+    <t>ScrName</t>
+  </si>
+  <si>
+    <t>TC01_Positive_CreateUser_check</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>Pwd_Hint</t>
   </si>
 </sst>
 </file>
@@ -91,9 +138,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,37 +428,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1796875" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -423,12 +472,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/InputFile/OneShieldTestData.xlsx
+++ b/InputFile/OneShieldTestData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="PositiveSignin" sheetId="1" r:id="rId1"/>
-    <sheet name="PositiveCreateSCR" sheetId="2" r:id="rId2"/>
-    <sheet name="PositiveUserInfo" sheetId="4" r:id="rId3"/>
+    <sheet name="NegativeSignin" sheetId="6" r:id="rId2"/>
+    <sheet name="PositiveCreateSCR" sheetId="2" r:id="rId3"/>
+    <sheet name="PositiveUserInfo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>UserName</t>
   </si>
@@ -37,55 +38,106 @@
     <t>TC01_Positive_Login_check</t>
   </si>
   <si>
+    <t>TC Name</t>
+  </si>
+  <si>
+    <t>Oneshield@21</t>
+  </si>
+  <si>
+    <t>TCName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>TC01_Positive_CreateScr_check</t>
+  </si>
+  <si>
+    <t>Test_SCR</t>
+  </si>
+  <si>
+    <t>Scr creation testing</t>
+  </si>
+  <si>
+    <t>ScrName</t>
+  </si>
+  <si>
+    <t>TC01_Positive_CreateUser_check</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>Pwd_Hint</t>
+  </si>
+  <si>
+    <t>test_user</t>
+  </si>
+  <si>
+    <t>tets</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>testuser@gmail.com</t>
+  </si>
+  <si>
+    <t>Oneshield</t>
+  </si>
+  <si>
+    <t>creating new user</t>
+  </si>
+  <si>
     <t>gvani</t>
   </si>
   <si>
-    <t>TC Name</t>
-  </si>
-  <si>
-    <t>Oneshield@21</t>
-  </si>
-  <si>
-    <t>TCName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>TC01_Positive_CreateScr_check</t>
-  </si>
-  <si>
-    <t>Test_SCR</t>
-  </si>
-  <si>
-    <t>Scr creation testing</t>
-  </si>
-  <si>
-    <t>ScrName</t>
-  </si>
-  <si>
-    <t>TC01_Positive_CreateUser_check</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Pwd</t>
-  </si>
-  <si>
-    <t>Pwd_Hint</t>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>TC02_BlankUsernamecheck</t>
+  </si>
+  <si>
+    <t>TC03_BlankPasswordcheck</t>
+  </si>
+  <si>
+    <t>TC04_InvalidUsernameCheck</t>
+  </si>
+  <si>
+    <t>gvani11</t>
+  </si>
+  <si>
+    <t>TC05_InvalidPasswordCheck</t>
+  </si>
+  <si>
+    <t>Oneshield@2123</t>
+  </si>
+  <si>
+    <t>TC06_SpecialCharUsernameCheck</t>
+  </si>
+  <si>
+    <t>TC07_SpecialCharPasswordCheck</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Designer QA (QADD)</t>
   </si>
 </sst>
 </file>
@@ -426,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,9 +492,9 @@
     <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -450,16 +502,22 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -472,10 +530,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,27 +644,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>144</v>
@@ -518,12 +675,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,42 +689,69 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>